--- a/DB屬性總覽.xlsx
+++ b/DB屬性總覽.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\VEEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD900E-6C4F-4C74-A5D2-AF5ABEBE7570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D29EA7-1748-42E5-B305-4FC9B5842B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="300" windowWidth="9750" windowHeight="9610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>屬性名稱</t>
   </si>
@@ -82,14 +82,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>expo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>booth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>showFollowers</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -138,14 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ARRAY[INTEGER]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARRAY[STRING]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -194,14 +178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>持有攤位的boothID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持有展會的id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>顯示追蹤者</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -234,10 +210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>符合台灣手機號碼格式，09開頭共12碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>符合標準email格式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -279,6 +251,10 @@
   </si>
   <si>
     <t>字元限制6~20位，須包含至少一個大寫字母、一個小寫字母及一個數字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>符合台灣手機號碼格式，09開頭共10碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -661,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -675,16 +651,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -692,36 +668,36 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -729,16 +705,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -746,16 +722,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -763,13 +739,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -777,13 +753,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -791,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -802,47 +778,47 @@
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -850,10 +826,16 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -861,44 +843,50 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="b">
         <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -906,16 +894,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -923,53 +911,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="2" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
